--- a/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>24.03287988838735</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.8032667633509643</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2036290182595674</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.768636177449158</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.126250181706411</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
@@ -552,19 +552,19 @@
         <v>0.126027397260274</v>
       </c>
       <c r="D3" t="n">
-        <v>121105.135320145</v>
+        <v>121091.9160649602</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03870526203578604</v>
+        <v>-0.04055452654159507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2077103258519232</v>
+        <v>0.2279851887159265</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.233507765262285</v>
+        <v>-3.576656112311131</v>
       </c>
       <c r="H3" t="n">
-        <v>24.03287988838735</v>
+        <v>48.19106477650713</v>
       </c>
       <c r="I3" t="n">
         <v>-0.8032667633509643</v>
@@ -628,19 +628,19 @@
         <v>0.2986301369863014</v>
       </c>
       <c r="D5" t="n">
-        <v>122563.0729965363</v>
+        <v>122559.2999124138</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03889892609375342</v>
+        <v>-0.0390492214106278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.226844133987692</v>
+        <v>0.2275066541398969</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.321491964465719</v>
+        <v>-1.342150593475142</v>
       </c>
       <c r="H5" t="n">
-        <v>13.24323776040892</v>
+        <v>13.41794205435837</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -662,19 +662,19 @@
         <v>0.3753424657534247</v>
       </c>
       <c r="D6" t="n">
-        <v>123343.604589965</v>
+        <v>123285.471987498</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03579244355346187</v>
+        <v>-0.03880019969021099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2065095986047829</v>
+        <v>0.2200654065035844</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2927519335478345</v>
+        <v>-0.7225663283659356</v>
       </c>
       <c r="H6" t="n">
-        <v>5.472189424966469</v>
+        <v>8.24218565938005</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4520547945205479</v>
       </c>
       <c r="D7" t="n">
-        <v>123824.0035886768</v>
+        <v>123823.5801999686</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04718201019784229</v>
+        <v>-0.04756574711378322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2580479710603907</v>
+        <v>0.2617606151182995</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.676486202890239</v>
+        <v>-1.834175766388056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.47349256169879</v>
+        <v>17.44050336386212</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.873972602739726</v>
       </c>
       <c r="D8" t="n">
-        <v>125641.7421497853</v>
+        <v>125501.7654631743</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0521079567094961</v>
+        <v>-0.05542935253461787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2026172765029167</v>
+        <v>0.2116100857669064</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7528881282513424</v>
+        <v>-0.9484414421336175</v>
       </c>
       <c r="H8" t="n">
-        <v>6.287383013116182</v>
+        <v>7.350683290569751</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9506849315068493</v>
       </c>
       <c r="D9" t="n">
-        <v>128027.5740857969</v>
+        <v>127236.2742784592</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0781081719284885</v>
+        <v>-0.09643346658496654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2801480824805865</v>
+        <v>0.3298463083335351</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4950601276564446</v>
+        <v>-1.080162824515163</v>
       </c>
       <c r="H9" t="n">
-        <v>5.862164763173144</v>
+        <v>8.125204318351777</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.2</v>
       </c>
       <c r="D10" t="n">
-        <v>128587.4026655996</v>
+        <v>128589.3559845158</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1369768842258129</v>
+        <v>-0.1360349085765478</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4534216635226033</v>
+        <v>0.4464757812208354</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.785584817034236</v>
+        <v>-1.6996865055798</v>
       </c>
       <c r="H10" t="n">
-        <v>9.799965730894765</v>
+        <v>9.091009351829779</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.446575342465753</v>
       </c>
       <c r="D11" t="n">
-        <v>130979.5981593556</v>
+        <v>130975.2902512479</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1465993524192367</v>
+        <v>-0.1462996400284794</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4467008745456689</v>
+        <v>0.444399876863888</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.476599218439663</v>
+        <v>-1.450693774417547</v>
       </c>
       <c r="H11" t="n">
-        <v>7.42166425410719</v>
+        <v>7.245399232316193</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -944,19 +944,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D14" t="n">
-        <v>120215.4365217038</v>
+        <v>120257.1792292386</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.07754864359292686</v>
+        <v>-0.07381262719815201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2175912472575059</v>
+        <v>0.193971534143024</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.666870387952771</v>
+        <v>-0.6144705762785001</v>
       </c>
       <c r="H14" t="n">
-        <v>18.50201107640332</v>
+        <v>8.433536171740222</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4689623905563629</v>
@@ -1028,19 +1028,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D16" t="n">
-        <v>120216.057556138</v>
+        <v>120259.0067400903</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1116231487100613</v>
+        <v>-0.1070763021382608</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2363990897907413</v>
+        <v>0.2221697773350063</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.71939654580292</v>
+        <v>-0.3753743299946656</v>
       </c>
       <c r="H16" t="n">
-        <v>8.064655715403338</v>
+        <v>6.142449630627786</v>
       </c>
       <c r="I16" t="n">
         <v>-0.4947833046559476</v>
@@ -1070,19 +1070,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D17" t="n">
-        <v>120227.9577034041</v>
+        <v>120223.878746479</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.09842780248308068</v>
+        <v>-0.09882300097050523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2301960831464157</v>
+        <v>0.2317129005192542</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6012982584663848</v>
+        <v>-0.6467046128420481</v>
       </c>
       <c r="H17" t="n">
-        <v>8.448877598356246</v>
+        <v>8.771461899378204</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4922627959349106</v>
@@ -1112,19 +1112,19 @@
         <v>0.04931506849315068</v>
       </c>
       <c r="D18" t="n">
-        <v>121098.6499984041</v>
+        <v>121122.606038857</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02907414529663649</v>
+        <v>-0.0275323233216507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1912714307110041</v>
+        <v>0.1828769957451155</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.25044628610999</v>
+        <v>-0.7543573897679601</v>
       </c>
       <c r="H18" t="n">
-        <v>13.2322280566203</v>
+        <v>6.811621619717825</v>
       </c>
       <c r="I18" t="n">
         <v>-0.5362322518282178</v>

--- a/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>18.5155790378486</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-1.015264185010925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2722891519712221</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.381644054962673</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.310366521624158</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
+++ b/data_processed/20250714/BTCUSDQMOMENT_20250714.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>13.41794205435837</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-1.076622977925301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.448376582304099</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05765380539135707</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.483069796822584</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
